--- a/doc/moneychanger.xlsx
+++ b/doc/moneychanger.xlsx
@@ -7,17 +7,19 @@
     <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="28,09" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="30,09 (2)" sheetId="7" r:id="rId1"/>
+    <sheet name="30,09" sheetId="6" r:id="rId2"/>
+    <sheet name="29,09" sheetId="5" r:id="rId3"/>
+    <sheet name="28,09" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t>WF</t>
   </si>
@@ -118,11 +120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A4:D16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица1435" displayName="Таблица1435" ref="A4:D16" totalsRowShown="0">
   <autoFilter ref="A4:D16"/>
-  <sortState ref="A5:D16">
-    <sortCondition ref="D4:D16"/>
-  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="WF"/>
@@ -136,6 +135,36 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица143" displayName="Таблица143" ref="A4:D16" totalsRowShown="0">
+  <autoFilter ref="A4:D16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="WF"/>
+    <tableColumn id="3" name="LD"/>
+    <tableColumn id="4" name="relation">
+      <calculatedColumnFormula>SUM(B5/C5,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="A4:D16" totalsRowShown="0">
+  <autoFilter ref="A4:D16"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="WF"/>
+    <tableColumn id="3" name="LD"/>
+    <tableColumn id="4" name="relation">
+      <calculatedColumnFormula>SUM(B5/C5,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A4:D16" totalsRowShown="0">
   <autoFilter ref="A4:D16"/>
   <tableColumns count="4">
@@ -439,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,167 +496,167 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>748</v>
+        <v>1150</v>
       </c>
       <c r="C5">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="D5">
         <f>SUM(B5/C5,0)</f>
-        <v>4.8888888888888893</v>
+        <v>5.2036199095022626</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1121</v>
+        <v>1322</v>
       </c>
       <c r="C6">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D6">
         <f>SUM(B6/C6,0)</f>
-        <v>5.6331658291457289</v>
+        <v>5.7478260869565219</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1093</v>
+        <v>1668</v>
       </c>
       <c r="C7">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="D7">
         <f>SUM(B7/C7,0)</f>
-        <v>5.6340206185567014</v>
+        <v>6.3181818181818183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>1472</v>
       </c>
       <c r="C8">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="D8">
-        <f>SUM(B8/C8,0)</f>
-        <v>5.7142857142857144</v>
+        <f t="shared" ref="D8:D16" si="0">SUM(B8/C8,0)</f>
+        <v>5.3919413919413923</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1483</v>
+        <v>1265</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D9">
         <f>SUM(B9/C9,0)</f>
-        <v>5.8385826771653546</v>
+        <v>5.3601694915254239</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>1368</v>
+        <v>862</v>
       </c>
       <c r="C10">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="D10">
-        <f>SUM(B10/C10,0)</f>
-        <v>5.947826086956522</v>
+        <f t="shared" si="0"/>
+        <v>5.8243243243243246</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>846</v>
+        <v>1088</v>
       </c>
       <c r="C11">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D11">
         <f>SUM(B11/C11,0)</f>
-        <v>5.957746478873239</v>
+        <v>5.608247422680412</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>1122</v>
+        <v>912</v>
       </c>
       <c r="C12">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="D12">
-        <f>SUM(B12/C12,0)</f>
-        <v>6.0648648648648651</v>
+        <f t="shared" si="0"/>
+        <v>6.422535211267606</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="C13">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="D13">
-        <f>SUM(B13/C13,0)</f>
-        <v>6.1111111111111107</v>
+        <f t="shared" si="0"/>
+        <v>4.6938775510204085</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1494</v>
+        <v>1145</v>
       </c>
       <c r="C14">
-        <v>235.99</v>
+        <v>229</v>
       </c>
       <c r="D14">
-        <f>SUM(B14/C14,0)</f>
-        <v>6.33077672782745</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1377</v>
+        <v>1323</v>
       </c>
       <c r="C15">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D15">
-        <f>SUM(B15/C15,0)</f>
-        <v>6.7170731707317071</v>
+        <f t="shared" si="0"/>
+        <v>6.2405660377358494</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,14 +664,14 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <f>SUM(B16/C16,0)</f>
-        <v>6.78125</v>
+        <f t="shared" si="0"/>
+        <v>5.2972972972972974</v>
       </c>
     </row>
   </sheetData>
@@ -654,6 +683,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1483</v>
+      </c>
+      <c r="C5">
+        <v>275</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D16" si="0">SUM(B5/C5,0)</f>
+        <v>5.3927272727272726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>803</v>
+      </c>
+      <c r="C6">
+        <v>139</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.7769784172661867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>747</v>
+      </c>
+      <c r="C7">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.2978723404255321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1098</v>
+      </c>
+      <c r="C8">
+        <v>187</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.8716577540106956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1495</v>
+      </c>
+      <c r="C9">
+        <v>262</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>5.7061068702290072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1185</v>
+      </c>
+      <c r="C10">
+        <v>222</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.3378378378378377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1093</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5.4649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1265</v>
+      </c>
+      <c r="C12">
+        <v>209</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.0526315789473681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1149</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.7450000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1150</v>
+      </c>
+      <c r="C14">
+        <v>245</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.6938775510204085</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1116</v>
+      </c>
+      <c r="C15">
+        <v>215</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>5.1906976744186046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.7105263157894735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1494</v>
+      </c>
+      <c r="C5">
+        <v>237</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D16" si="0">SUM(B5/C5,0)</f>
+        <v>6.3037974683544302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>805</v>
+      </c>
+      <c r="C6">
+        <v>147</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.4761904761904763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>817</v>
+      </c>
+      <c r="C7">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.753521126760563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1093</v>
+      </c>
+      <c r="C8">
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.7526315789473683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1483</v>
+      </c>
+      <c r="C9">
+        <v>246</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>6.0284552845528454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1311</v>
+      </c>
+      <c r="C10">
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>5.959090909090909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1100</v>
+      </c>
+      <c r="C11">
+        <v>194</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5.6701030927835054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1294</v>
+      </c>
+      <c r="C12">
+        <v>207</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>6.2512077294685993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1060</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1121</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>5.6050000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1093</v>
+      </c>
+      <c r="C15">
+        <v>175</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>6.2457142857142856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.7105263157894735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -694,7 +1159,7 @@
         <v>235.99</v>
       </c>
       <c r="D5">
-        <f>SUM(B5/C5,0)</f>
+        <f t="shared" ref="D5:D16" si="0">SUM(B5/C5,0)</f>
         <v>6.33077672782745</v>
       </c>
     </row>
@@ -709,7 +1174,7 @@
         <v>153</v>
       </c>
       <c r="D6">
-        <f>SUM(B6/C6,0)</f>
+        <f t="shared" si="0"/>
         <v>4.8888888888888893</v>
       </c>
     </row>
@@ -724,7 +1189,7 @@
         <v>142</v>
       </c>
       <c r="D7">
-        <f>SUM(B7/C7,0)</f>
+        <f t="shared" si="0"/>
         <v>5.957746478873239</v>
       </c>
     </row>
@@ -739,7 +1204,7 @@
         <v>180</v>
       </c>
       <c r="D8">
-        <f>SUM(B8/C8,0)</f>
+        <f t="shared" si="0"/>
         <v>6.1111111111111107</v>
       </c>
     </row>
@@ -754,7 +1219,7 @@
         <v>254</v>
       </c>
       <c r="D9">
-        <f>SUM(B9/C9,0)</f>
+        <f t="shared" si="0"/>
         <v>5.8385826771653546</v>
       </c>
     </row>
@@ -769,7 +1234,7 @@
         <v>230</v>
       </c>
       <c r="D10">
-        <f>SUM(B10/C10,0)</f>
+        <f t="shared" si="0"/>
         <v>5.947826086956522</v>
       </c>
     </row>
@@ -784,7 +1249,7 @@
         <v>194</v>
       </c>
       <c r="D11">
-        <f>SUM(B11/C11,0)</f>
+        <f t="shared" si="0"/>
         <v>5.6340206185567014</v>
       </c>
     </row>
@@ -799,7 +1264,7 @@
         <v>205</v>
       </c>
       <c r="D12">
-        <f>SUM(B12/C12,0)</f>
+        <f t="shared" si="0"/>
         <v>6.7170731707317071</v>
       </c>
     </row>
@@ -814,7 +1279,7 @@
         <v>185</v>
       </c>
       <c r="D13">
-        <f>SUM(B13/C13,0)</f>
+        <f t="shared" si="0"/>
         <v>6.0648648648648651</v>
       </c>
     </row>
@@ -829,7 +1294,7 @@
         <v>199</v>
       </c>
       <c r="D14">
-        <f>SUM(B14/C14,0)</f>
+        <f t="shared" si="0"/>
         <v>5.6331658291457289</v>
       </c>
     </row>
@@ -844,7 +1309,7 @@
         <v>175</v>
       </c>
       <c r="D15">
-        <f>SUM(B15/C15,0)</f>
+        <f t="shared" si="0"/>
         <v>5.7142857142857144</v>
       </c>
     </row>
@@ -859,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <f>SUM(B16/C16,0)</f>
+        <f t="shared" si="0"/>
         <v>6.78125</v>
       </c>
     </row>
@@ -871,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -883,7 +1348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
